--- a/College Finder UG New.xlsx
+++ b/College Finder UG New.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/1c2d004a21318090/Desktop/College Finder/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="36" documentId="11_61309C3784606271D61715A732ED2EC773498BAE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{9DBB51BF-14A1-4D63-8B38-9811F2D9CE84}"/>
+  <xr:revisionPtr revIDLastSave="133" documentId="11_61309C3784606271D61715A732ED2EC773498BAE" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{0419E644-2A07-4A97-A7FF-A339739224E6}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="College_Finder" sheetId="2" r:id="rId1"/>
     <sheet name="University" sheetId="3" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">University!$A$1:$E$78</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -1369,10 +1372,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{15E59907-2833-4961-A5D3-CFD4302A5CAF}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="D82" sqref="D82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -1397,7 +1401,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>9</v>
       </c>
@@ -1411,7 +1415,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
         <v>10</v>
       </c>
@@ -1425,7 +1429,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>10</v>
       </c>
@@ -1439,7 +1443,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>9</v>
       </c>
@@ -1453,7 +1457,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1464,10 +1468,10 @@
         <v>5</v>
       </c>
       <c r="D6" s="2">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>9</v>
       </c>
@@ -1481,7 +1485,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>11</v>
       </c>
@@ -1495,7 +1499,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>10</v>
       </c>
@@ -1506,10 +1510,10 @@
         <v>9</v>
       </c>
       <c r="D9" s="2">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>9</v>
       </c>
@@ -1523,7 +1527,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>9</v>
       </c>
@@ -1534,10 +1538,10 @@
         <v>11</v>
       </c>
       <c r="D11" s="2">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>9</v>
       </c>
@@ -1548,10 +1552,10 @@
         <v>12</v>
       </c>
       <c r="D12" s="2">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>35</v>
       </c>
@@ -1562,10 +1566,10 @@
         <v>13</v>
       </c>
       <c r="D13" s="2">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>11</v>
       </c>
@@ -1579,7 +1583,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>9</v>
       </c>
@@ -1590,10 +1594,10 @@
         <v>16</v>
       </c>
       <c r="D15" s="2">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>19</v>
       </c>
@@ -1607,7 +1611,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
         <v>35</v>
       </c>
@@ -1618,10 +1622,10 @@
         <v>18</v>
       </c>
       <c r="D17" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>35</v>
       </c>
@@ -1632,10 +1636,10 @@
         <v>19</v>
       </c>
       <c r="D18" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
         <v>9</v>
       </c>
@@ -1646,10 +1650,10 @@
         <v>21</v>
       </c>
       <c r="D19" s="2">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
         <v>9</v>
       </c>
@@ -1660,10 +1664,10 @@
         <v>22</v>
       </c>
       <c r="D20" s="2">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
         <v>9</v>
       </c>
@@ -1674,7 +1678,7 @@
         <v>23</v>
       </c>
       <c r="D21" s="2">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
@@ -1688,10 +1692,10 @@
         <v>25</v>
       </c>
       <c r="D22" s="2">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>10</v>
       </c>
@@ -1702,10 +1706,10 @@
         <v>27</v>
       </c>
       <c r="D23" s="2">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>14</v>
       </c>
@@ -1730,10 +1734,10 @@
         <v>29</v>
       </c>
       <c r="D25" s="2">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>35</v>
       </c>
@@ -1744,10 +1748,10 @@
         <v>30</v>
       </c>
       <c r="D26" s="2">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>21</v>
       </c>
@@ -1761,7 +1765,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>9</v>
       </c>
@@ -1772,10 +1776,10 @@
         <v>32</v>
       </c>
       <c r="D28" s="2">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
         <v>20</v>
       </c>
@@ -1786,10 +1790,10 @@
         <v>32</v>
       </c>
       <c r="D29" s="2">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
         <v>9</v>
       </c>
@@ -1800,10 +1804,10 @@
         <v>34</v>
       </c>
       <c r="D30" s="2">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
         <v>10</v>
       </c>
@@ -1814,10 +1818,10 @@
         <v>34</v>
       </c>
       <c r="D31" s="2">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
         <v>19</v>
       </c>
@@ -1828,10 +1832,10 @@
         <v>36</v>
       </c>
       <c r="D32" s="2">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>35</v>
       </c>
@@ -1842,7 +1846,7 @@
         <v>37</v>
       </c>
       <c r="D33" s="2">
-        <v>85</v>
+        <v>77</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
@@ -1856,10 +1860,10 @@
         <v>38</v>
       </c>
       <c r="D34" s="2">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
         <v>10</v>
       </c>
@@ -1870,10 +1874,10 @@
         <v>40</v>
       </c>
       <c r="D35" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
         <v>35</v>
       </c>
@@ -1884,10 +1888,10 @@
         <v>40</v>
       </c>
       <c r="D36" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>9</v>
       </c>
@@ -1898,10 +1902,10 @@
         <v>42</v>
       </c>
       <c r="D37" s="2">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>9</v>
       </c>
@@ -1912,10 +1916,10 @@
         <v>43</v>
       </c>
       <c r="D38" s="2">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>9</v>
       </c>
@@ -1926,10 +1930,10 @@
         <v>44</v>
       </c>
       <c r="D39" s="2">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>19</v>
       </c>
@@ -1940,10 +1944,10 @@
         <v>47</v>
       </c>
       <c r="D40" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>15</v>
       </c>
@@ -1954,14 +1958,14 @@
         <v>49</v>
       </c>
       <c r="D41" s="2">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="E41">
         <f>E17</f>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>9</v>
       </c>
@@ -1972,10 +1976,10 @@
         <v>50</v>
       </c>
       <c r="D42" s="2">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
         <v>10</v>
       </c>
@@ -1986,10 +1990,10 @@
         <v>50</v>
       </c>
       <c r="D43" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>20</v>
       </c>
@@ -2000,10 +2004,10 @@
         <v>50</v>
       </c>
       <c r="D44" s="2">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>21</v>
       </c>
@@ -2014,10 +2018,10 @@
         <v>53</v>
       </c>
       <c r="D45" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
         <v>10</v>
       </c>
@@ -2028,10 +2032,10 @@
         <v>54</v>
       </c>
       <c r="D46" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>15</v>
       </c>
@@ -2042,10 +2046,10 @@
         <v>56</v>
       </c>
       <c r="D47" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>21</v>
       </c>
@@ -2056,10 +2060,10 @@
         <v>57</v>
       </c>
       <c r="D48" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>19</v>
       </c>
@@ -2070,10 +2074,10 @@
         <v>58</v>
       </c>
       <c r="D49" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>9</v>
       </c>
@@ -2084,10 +2088,10 @@
         <v>59</v>
       </c>
       <c r="D50" s="2">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>14</v>
       </c>
@@ -2098,10 +2102,10 @@
         <v>60</v>
       </c>
       <c r="D51" s="2">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>9</v>
       </c>
@@ -2112,10 +2116,10 @@
         <v>62</v>
       </c>
       <c r="D52" s="2">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>19</v>
       </c>
@@ -2126,10 +2130,10 @@
         <v>63</v>
       </c>
       <c r="D53" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
         <v>16</v>
       </c>
@@ -2140,10 +2144,10 @@
         <v>65</v>
       </c>
       <c r="D54" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>9</v>
       </c>
@@ -2154,10 +2158,10 @@
         <v>66</v>
       </c>
       <c r="D55" s="2">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>21</v>
       </c>
@@ -2168,10 +2172,10 @@
         <v>67</v>
       </c>
       <c r="D56" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
         <v>9</v>
       </c>
@@ -2182,10 +2186,10 @@
         <v>69</v>
       </c>
       <c r="D57" s="2">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
         <v>10</v>
       </c>
@@ -2196,10 +2200,10 @@
         <v>69</v>
       </c>
       <c r="D58" s="2">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
         <v>9</v>
       </c>
@@ -2210,10 +2214,10 @@
         <v>72</v>
       </c>
       <c r="D59" s="2">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
         <v>9</v>
       </c>
@@ -2224,10 +2228,10 @@
         <v>76</v>
       </c>
       <c r="D60" s="2">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>35</v>
       </c>
@@ -2238,10 +2242,10 @@
         <v>77</v>
       </c>
       <c r="D61" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>10</v>
       </c>
@@ -2252,10 +2256,10 @@
         <v>78</v>
       </c>
       <c r="D62" s="2">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>9</v>
       </c>
@@ -2266,10 +2270,10 @@
         <v>79</v>
       </c>
       <c r="D63" s="2">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>10</v>
       </c>
@@ -2280,10 +2284,10 @@
         <v>80</v>
       </c>
       <c r="D64" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>10</v>
       </c>
@@ -2294,10 +2298,10 @@
         <v>80</v>
       </c>
       <c r="D65" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>10</v>
       </c>
@@ -2308,10 +2312,10 @@
         <v>82</v>
       </c>
       <c r="D66" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>35</v>
       </c>
@@ -2322,10 +2326,10 @@
         <v>82</v>
       </c>
       <c r="D67" s="2">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>20</v>
       </c>
@@ -2336,10 +2340,10 @@
         <v>84</v>
       </c>
       <c r="D68" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
         <v>14</v>
       </c>
@@ -2350,10 +2354,10 @@
         <v>84</v>
       </c>
       <c r="D69" s="2">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
         <v>20</v>
       </c>
@@ -2364,10 +2368,10 @@
         <v>86</v>
       </c>
       <c r="D70" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
         <v>17</v>
       </c>
@@ -2378,10 +2382,10 @@
         <v>87</v>
       </c>
       <c r="D71" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
         <v>35</v>
       </c>
@@ -2392,10 +2396,10 @@
         <v>88</v>
       </c>
       <c r="D72" s="2">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
         <v>9</v>
       </c>
@@ -2406,10 +2410,10 @@
         <v>89</v>
       </c>
       <c r="D73" s="2">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
         <v>9</v>
       </c>
@@ -2420,10 +2424,10 @@
         <v>89</v>
       </c>
       <c r="D74" s="2">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
         <v>10</v>
       </c>
@@ -2434,7 +2438,7 @@
         <v>89</v>
       </c>
       <c r="D75" s="2">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.25">
@@ -2448,10 +2452,10 @@
         <v>96</v>
       </c>
       <c r="D76" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
         <v>21</v>
       </c>
@@ -2462,10 +2466,10 @@
         <v>98</v>
       </c>
       <c r="D77" s="2">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
         <v>14</v>
       </c>
@@ -2476,10 +2480,17 @@
         <v>99</v>
       </c>
       <c r="D78" s="2">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:E78" xr:uid="{15E59907-2833-4961-A5D3-CFD4302A5CAF}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="Canada"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>